--- a/va_facility_data_2025-02-20/Brainerd VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brainerd%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Brainerd VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brainerd%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd145e61728e74113b330f70b0df41c30"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R572e5f98f9004aaeab8495e9abad9d38"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R00cd042d8a9c437cae539f5420e2c0de"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7a6083616ddd46a1a8b056bf824ebdaa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2ddc9a69892b48609785c6c85ebd2304"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R97cecd4faa5c4518b56778495f0e26cc"/>
   </x:sheets>
 </x:workbook>
 </file>
